--- a/现金流量表/300925.xlsx
+++ b/现金流量表/300925.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -739,61 +739,61 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-09 00:00:00</t>
+          <t>2020-12-23 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>-88034603.95999999</v>
+        <v>12709320.66</v>
       </c>
       <c r="P2" t="n">
-        <v>-210.422404866</v>
+        <v>29.9867132318</v>
       </c>
       <c r="Q2" t="n">
-        <v>1165212443.59</v>
+        <v>398808642.29</v>
       </c>
       <c r="R2" t="n">
-        <v>2785.1185048934</v>
+        <v>940.9598444042</v>
       </c>
       <c r="S2" t="n">
-        <v>1101573787.7</v>
+        <v>338511921.08</v>
       </c>
       <c r="T2" t="n">
-        <v>2633.0078755221</v>
+        <v>798.6941375176</v>
       </c>
       <c r="U2" t="n">
-        <v>-23284004.37</v>
+        <v>-67006014.03</v>
       </c>
       <c r="V2" t="n">
-        <v>-55.653981208</v>
+        <v>-158.0957929441</v>
       </c>
       <c r="W2" t="n">
-        <v>845983.72</v>
+        <v>133575.35</v>
       </c>
       <c r="X2" t="n">
-        <v>2.0220904148</v>
+        <v>0.3151612759</v>
       </c>
       <c r="Y2" t="n">
-        <v>24229988.09</v>
+        <v>2647986.38</v>
       </c>
       <c r="Z2" t="n">
-        <v>57.915094002</v>
+        <v>6.2477303345</v>
       </c>
       <c r="AA2" t="n">
-        <v>69519071.09</v>
+        <v>11913519.99</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.1661376866</v>
+        <v>28.1090797123</v>
       </c>
       <c r="AC2" t="n">
-        <v>-41837086.7</v>
+        <v>-42383173.38</v>
       </c>
       <c r="AD2" t="n">
-        <v>-169.96961654</v>
+        <v>-166.6274112617</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/300925.xlsx
+++ b/现金流量表/300925.xlsx
@@ -724,14 +724,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -744,56 +744,56 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>12709320.66</v>
+        <v>-81292482.95</v>
       </c>
       <c r="P2" t="n">
-        <v>29.9867132318</v>
+        <v>-965.0446451346</v>
       </c>
       <c r="Q2" t="n">
-        <v>398808642.29</v>
+        <v>683298744.51</v>
       </c>
       <c r="R2" t="n">
-        <v>940.9598444042</v>
+        <v>8111.6207856779</v>
       </c>
       <c r="S2" t="n">
-        <v>338511921.08</v>
+        <v>681583932.78</v>
       </c>
       <c r="T2" t="n">
-        <v>798.6941375176</v>
+        <v>8091.2638004144</v>
       </c>
       <c r="U2" t="n">
-        <v>-67006014.03</v>
+        <v>16595658.63</v>
       </c>
       <c r="V2" t="n">
-        <v>-158.0957929441</v>
+        <v>197.0114691074</v>
       </c>
       <c r="W2" t="n">
-        <v>133575.35</v>
+        <v>677911.42</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3151612759</v>
+        <v>8.047666426299999</v>
       </c>
       <c r="Y2" t="n">
-        <v>2647986.38</v>
+        <v>14182252.79</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.2477303345</v>
+        <v>168.3612877141</v>
       </c>
       <c r="AA2" t="n">
-        <v>11913519.99</v>
+        <v>56256538.62</v>
       </c>
       <c r="AB2" t="n">
-        <v>28.1090797123</v>
+        <v>667.8363039106</v>
       </c>
       <c r="AC2" t="n">
-        <v>-42383173.38</v>
+        <v>-8423701.779999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>-166.6274112617</v>
+        <v>-122.2929552369</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/300925.xlsx
+++ b/现金流量表/300925.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -744,56 +744,56 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>-81292482.95</v>
+        <v>12763520.39</v>
       </c>
       <c r="P2" t="n">
-        <v>-965.0446451346</v>
+        <v>30.1421706372</v>
       </c>
       <c r="Q2" t="n">
-        <v>683298744.51</v>
+        <v>704845378.6</v>
       </c>
       <c r="R2" t="n">
-        <v>8111.6207856779</v>
+        <v>1664.5540591814</v>
       </c>
       <c r="S2" t="n">
-        <v>681583932.78</v>
+        <v>617464715.4400001</v>
       </c>
       <c r="T2" t="n">
-        <v>8091.2638004144</v>
+        <v>1458.1969743895</v>
       </c>
       <c r="U2" t="n">
-        <v>16595658.63</v>
+        <v>9311793.140000001</v>
       </c>
       <c r="V2" t="n">
-        <v>197.0114691074</v>
+        <v>21.9906145944</v>
       </c>
       <c r="W2" t="n">
-        <v>677911.42</v>
+        <v>1380506.48</v>
       </c>
       <c r="X2" t="n">
-        <v>8.047666426299999</v>
+        <v>3.2601868932</v>
       </c>
       <c r="Y2" t="n">
-        <v>14182252.79</v>
+        <v>6588381.84</v>
       </c>
       <c r="Z2" t="n">
-        <v>168.3612877141</v>
+        <v>15.5590404196</v>
       </c>
       <c r="AA2" t="n">
-        <v>56256538.62</v>
+        <v>20269083.44</v>
       </c>
       <c r="AB2" t="n">
-        <v>667.8363039106</v>
+        <v>47.8672147684</v>
       </c>
       <c r="AC2" t="n">
-        <v>-8423701.779999999</v>
+        <v>42344396.97</v>
       </c>
       <c r="AD2" t="n">
-        <v>-122.2929552369</v>
+        <v>199.9085098946</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/300925.xlsx
+++ b/现金流量表/300925.xlsx
@@ -744,56 +744,56 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>12763520.39</v>
+        <v>12709320.66</v>
       </c>
       <c r="P2" t="n">
-        <v>30.1421706372</v>
+        <v>29.9867132318</v>
       </c>
       <c r="Q2" t="n">
-        <v>704845378.6</v>
+        <v>398808642.29</v>
       </c>
       <c r="R2" t="n">
-        <v>1664.5540591814</v>
+        <v>940.9598444042</v>
       </c>
       <c r="S2" t="n">
-        <v>617464715.4400001</v>
+        <v>338511921.08</v>
       </c>
       <c r="T2" t="n">
-        <v>1458.1969743895</v>
+        <v>798.6941375176</v>
       </c>
       <c r="U2" t="n">
-        <v>9311793.140000001</v>
+        <v>-67006014.03</v>
       </c>
       <c r="V2" t="n">
-        <v>21.9906145944</v>
+        <v>-158.0957929441</v>
       </c>
       <c r="W2" t="n">
-        <v>1380506.48</v>
+        <v>133575.35</v>
       </c>
       <c r="X2" t="n">
-        <v>3.2601868932</v>
+        <v>0.3151612759</v>
       </c>
       <c r="Y2" t="n">
-        <v>6588381.84</v>
+        <v>2647986.38</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.5590404196</v>
+        <v>6.2477303345</v>
       </c>
       <c r="AA2" t="n">
-        <v>20269083.44</v>
+        <v>11913519.99</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.8672147684</v>
+        <v>28.1090797123</v>
       </c>
       <c r="AC2" t="n">
-        <v>42344396.97</v>
+        <v>-42383173.38</v>
       </c>
       <c r="AD2" t="n">
-        <v>199.9085098946</v>
+        <v>-166.6274112617</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
